--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj\Udemy-data-analyst-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073777C4-E526-4FAC-8AD4-16AABDDEB2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E766958-762C-4D35-916F-AEDB561BD7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,20 @@
     <sheet name="Pie Chart" sheetId="5" r:id="rId4"/>
     <sheet name="Line Chart" sheetId="6" r:id="rId5"/>
     <sheet name="Pie chart (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Area Chart" sheetId="8" r:id="rId7"/>
+    <sheet name="Tree Map" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Tree Map'!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Tree Map'!$F$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Tree Map'!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tree Map'!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Tree Map'!$F$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Tree Map'!$F$2:$F$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="58">
   <si>
     <t>Product_Category</t>
   </si>
@@ -233,12 +243,15 @@
   <si>
     <t>Frequency Of Product Category</t>
   </si>
+  <si>
+    <t>Average of Quantity Sold</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +263,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,6 +320,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2366,6 +2387,1119 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Qty sold by customer segment and region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Individual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>458.53990908775057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310.28262741355866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339.80189489509672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423.87594606467871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A91B-47BE-847F-1905A1B9E3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Business</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>302.22703823610487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522.59914763509664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498.87145192481557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.58856083333484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A91B-47BE-847F-1905A1B9E3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wholesale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>504.23997171566981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>328.53825657576442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657.9415864575675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450.10278326040924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A91B-47BE-847F-1905A1B9E3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1137487552"/>
+        <c:axId val="1137499552"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1137487552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137499552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1137499552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137487552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Qty sold by customer Sales channel and region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Catalog</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In-store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$G$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>293.04607503105603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337.95996961399663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263.71340105403601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370.28747334043658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C6A-407F-97F8-C0BDE6CA4015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Catalog</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In-store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$G$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>451.76043894519592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355.1277773846432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.67898475175139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.85283054282911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C6A-407F-97F8-C0BDE6CA4015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Catalog</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In-store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$G$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>257.3246598186077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434.51127775824136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410.13992834891997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394.63906735171082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C6A-407F-97F8-C0BDE6CA4015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Area Chart'!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Area Chart'!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Catalog</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In-store</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Area Chart'!$G$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>235.65067171159313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434.55872440248112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.64723842134151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.71065562300703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C6A-407F-97F8-C0BDE6CA4015}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1137540832"/>
+        <c:axId val="1137541312"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1137540832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137541312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1137541312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137540832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Average of Quantity Sold</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Average of Quantity Sold</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{83B935E1-883D-4665-B6B0-1469383300A7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Average of Quantity Sold</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2566,6 +3700,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5109,6 +6363,1570 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5315,6 +8133,166 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D1DEEB-1FFD-0383-E6A1-72D1469E7500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01EF30-B3A9-6911-93C2-B54788BFC9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8378C7A-EE6A-FCA0-3908-DBEF9FCF7562}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5478780" y="636270"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6131,7 +9109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A81" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13254,7 +16232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57510AB7-D39C-4B94-A12D-EDE3457C8A79}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D5"/>
     </sheetView>
   </sheetViews>
@@ -14122,7 +17100,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14160,7 +17138,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="6">
-        <f>C2/$C$7</f>
+        <f t="shared" ref="D2:D7" si="0">C2/$C$7</f>
         <v>0.22</v>
       </c>
     </row>
@@ -14176,7 +17154,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/$C$7</f>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
@@ -14192,7 +17170,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="6">
-        <f>C4/$C$7</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
@@ -14208,7 +17186,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6">
-        <f>C5/$C$7</f>
+        <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
     </row>
@@ -14224,7 +17202,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/$C$7</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -14240,7 +17218,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="6">
-        <f>C7/$C$7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -14712,6 +17690,2513 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <v>Sports &amp; Outdoors</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D574A442-B308-48F0-AC3E-6C84BA1265C8}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="str" cm="1">
+        <f t="array" ref="A1:A101">Data!D1:D101</f>
+        <v>Region</v>
+      </c>
+      <c r="B1" s="3" t="str" cm="1">
+        <f t="array" ref="B1:B101">Data!B1:B101</f>
+        <v>Customer_Segment</v>
+      </c>
+      <c r="C1" s="3" t="str" cm="1">
+        <f t="array" ref="C1:C101">Data!H1:H101</f>
+        <v>Quantity_Sold</v>
+      </c>
+      <c r="D1" s="3" t="str" cm="1">
+        <f t="array" ref="D1:D101">Data!E1:E101</f>
+        <v>Sales_Channel</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <v>South</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C2">
+        <v>21.692585158991719</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Online</v>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2:F5">_xlfn.UNIQUE(A2:A101)</f>
+        <v>South</v>
+      </c>
+      <c r="G2">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$2,$B$2:$B$101,G1)</f>
+        <v>458.53990908775057</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I2" si="0">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$2,$B$2:$B$101,H1)</f>
+        <v>302.22703823610487</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>504.23997171566981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>East</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C3">
+        <v>41.58709354469282</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Online</v>
+      </c>
+      <c r="F3" t="str">
+        <v>East</v>
+      </c>
+      <c r="G3">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$3,$B$2:$B$101,G1)</f>
+        <v>310.28262741355866</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I3" si="1">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$3,$B$2:$B$101,H1)</f>
+        <v>522.59914763509664</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>328.53825657576442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>North</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C4">
+        <v>43.145709669464608</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Online</v>
+      </c>
+      <c r="F4" t="str">
+        <v>North</v>
+      </c>
+      <c r="G4">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$4,$B$2:$B$101,G1)</f>
+        <v>339.80189489509672</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:I4" si="2">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$4,$B$2:$B$101,H1)</f>
+        <v>498.87145192481557</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>657.9415864575675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>East</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C5">
+        <v>33.95445461556762</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Catalog</v>
+      </c>
+      <c r="F5" t="str">
+        <v>West</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$5,$B$2:$B$101,G1)</f>
+        <v>423.87594606467871</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:I5" si="3">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$5,$B$2:$B$101,H1)</f>
+        <v>247.58856083333484</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>450.10278326040924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>South</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C6">
+        <v>46.774285766679817</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>South</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C7">
+        <v>58.081017136290768</v>
+      </c>
+      <c r="D7" t="str">
+        <v>In-store</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>West</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C8">
+        <v>87.723718024210598</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Online</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8:F11">_xlfn.UNIQUE(A2:A101)</f>
+        <v>South</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$8,$D$2:$D$101,G7)</f>
+        <v>293.04607503105603</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:J8" si="4">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$8,$D$2:$D$101,H7)</f>
+        <v>337.95996961399663</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>263.71340105403601</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>370.28747334043658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>North</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C9">
+        <v>53.491556256636777</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Catalog</v>
+      </c>
+      <c r="F9" t="str">
+        <v>East</v>
+      </c>
+      <c r="G9">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$9,$D$2:$D$101,G7)</f>
+        <v>451.76043894519592</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:J9" si="5">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$9,$D$2:$D$101,H7)</f>
+        <v>355.1277773846432</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>137.67898475175139</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>216.85283054282911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>South</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C10">
+        <v>55.151007814455284</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Catalog</v>
+      </c>
+      <c r="F10" t="str">
+        <v>North</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$10,$D$2:$D$101,G7)</f>
+        <v>257.3246598186077</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:J10" si="6">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$10,$D$2:$D$101,H7)</f>
+        <v>434.51127775824136</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>410.13992834891997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>394.63906735171082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>West</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C11">
+        <v>48.511081684676647</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Catalog</v>
+      </c>
+      <c r="F11" t="str">
+        <v>West</v>
+      </c>
+      <c r="G11">
+        <f>SUMIFS($C$2:$C$101,$A$2:$A$101,$F$11,$D$2:$D$101,G7)</f>
+        <v>235.65067171159313</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:J11" si="7">SUMIFS($C$2:$C$101,$A$2:$A$101,$F$11,$D$2:$D$101,H7)</f>
+        <v>434.55872440248112</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>168.64723842134151</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>282.71065562300703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>North</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C12">
+        <v>11.624575694019169</v>
+      </c>
+      <c r="D12" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>South</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C13">
+        <v>49.469722491015659</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>South</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C14">
+        <v>51.204604198820533</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>North</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C15">
+        <v>99.264842249705723</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>North</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C16">
+        <v>46.152780704377548</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>North</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C17">
+        <v>56.030946846672251</v>
+      </c>
+      <c r="D17" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>South</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C18">
+        <v>49.305764605895128</v>
+      </c>
+      <c r="D18" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>South</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C19">
+        <v>26.626439247609358</v>
+      </c>
+      <c r="D19" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>West</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C20">
+        <v>72.856456290300414</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>East</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C21">
+        <v>65.038660653735491</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>North</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C22">
+        <v>65.820638940860931</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>South</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C23">
+        <v>31.81225090410522</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>South</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C24">
+        <v>78.05588621872198</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>North</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C25">
+        <v>21.96297874415438</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>East</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C26">
+        <v>61.73714187600541</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>North</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C27">
+        <v>93.809112516199576</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>East</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C28">
+        <v>30.189273497386228</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>South</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C29">
+        <v>38.674045407944561</v>
+      </c>
+      <c r="D29" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>East</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C30">
+        <v>51.993027301752832</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>West</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C31">
+        <v>39.930486917676014</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>South</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C32">
+        <v>18.986731378677352</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>West</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C33">
+        <v>51.371259496120537</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>North</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C34">
+        <v>28.753925725477899</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>North</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C35">
+        <v>59.471848612703631</v>
+      </c>
+      <c r="D35" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>North</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C36">
+        <v>31.611515315323938</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>East</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C37">
+        <v>80.99868810035079</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>South</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C38">
+        <v>34.334934153275263</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>North</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C39">
+        <v>43.558769675886488</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>North</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C40">
+        <v>66.27034434739339</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>South</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C41">
+        <v>25.3827136713209</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>North</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C42">
+        <v>54.549198692082591</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>West</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C43">
+        <v>76.142855085648563</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>South</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C44">
+        <v>17.850335308775449</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>South</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C45">
+        <v>53.692677170646093</v>
+      </c>
+      <c r="D45" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>South</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C46">
+        <v>55.197655884968469</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>West</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C47">
+        <v>65.636457435546205</v>
+      </c>
+      <c r="D47" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>South</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C48">
+        <v>25.260985782438361</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>West</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C49">
+        <v>23.590867738314468</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>South</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C50">
+        <v>60.438831312337953</v>
+      </c>
+      <c r="D50" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>East</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C51">
+        <v>55.939693464663719</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>North</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C52">
+        <v>55.009857006917528</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>East</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C53">
+        <v>56.928964189939506</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>North</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C54">
+        <v>36.399505568430193</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>West</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C55">
+        <v>54.645073943220069</v>
+      </c>
+      <c r="D55" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>East</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C56">
+        <v>55.861449465973621</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>South</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C57">
+        <v>35.712971639472642</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>North</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C58">
+        <v>87.315490222895136</v>
+      </c>
+      <c r="D58" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <v>North</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C59">
+        <v>59.476658418235751</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>East</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C60">
+        <v>26.173930055947029</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>West</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C61">
+        <v>63.131072172676603</v>
+      </c>
+      <c r="D61" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>East</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C62">
+        <v>30.506366595453571</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>West</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C63">
+        <v>65.741692074849041</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>West</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C64">
+        <v>73.171911580148077</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>North</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C65">
+        <v>33.586353632965789</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>East</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C66">
+        <v>69.267522584886436</v>
+      </c>
+      <c r="D66" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>East</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C67">
+        <v>58.255618538729962</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>West</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C68">
+        <v>66.441203199889799</v>
+      </c>
+      <c r="D68" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>East</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C69">
+        <v>87.93585965307895</v>
+      </c>
+      <c r="D69" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>South</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C70">
+        <v>45.092237679942592</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <v>South</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C71">
+        <v>34.925276712850213</v>
+      </c>
+      <c r="D71" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <v>East</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C72">
+        <v>32.209711407489543</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <v>East</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C73">
+        <v>33.683794300691233</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <v>West</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C74">
+        <v>48.457965811717919</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <v>South</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C75">
+        <v>56.823039496332868</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <v>South</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C76">
+        <v>55.533815986600381</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <v>North</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C77">
+        <v>66.543664980720479</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <v>West</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C78">
+        <v>50.260037837558137</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <v>North</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C79">
+        <v>79.070681543146335</v>
+      </c>
+      <c r="D79" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <v>South</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C80">
+        <v>44.706863335240882</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <v>West</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C81">
+        <v>104.4033833317924</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <v>East</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C82">
+        <v>62.513346955300122</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <v>West</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C83">
+        <v>32.856848871674337</v>
+      </c>
+      <c r="D83" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <v>East</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C84">
+        <v>28.582150038777751</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <v>East</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C85">
+        <v>59.649448304863697</v>
+      </c>
+      <c r="D85" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <v>West</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C86">
+        <v>45.530744293482982</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <v>East</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C87">
+        <v>64.280009881841835</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <v>North</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C88">
+        <v>59.464752491470897</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <v>South</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C89">
+        <v>48.543421746862542</v>
+      </c>
+      <c r="D89" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <v>East</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C90">
+        <v>33.0641256386319</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <v>North</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C91">
+        <v>19.703055506282709</v>
+      </c>
+      <c r="D91" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <v>East</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C92">
+        <v>41.069700958659581</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <v>South</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C93">
+        <v>67.127975886469443</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <v>North</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C94">
+        <v>54.281874882604079</v>
+      </c>
+      <c r="D94" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <v>South</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C95">
+        <v>25.085224425760241</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <v>South</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C96">
+        <v>53.46361851702364</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <v>North</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C97">
+        <v>57.706347594576727</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Catalog</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <v>North</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C98">
+        <v>32.322851275977342</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>North</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Individual</v>
+      </c>
+      <c r="C99">
+        <v>53.074502118910559</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Phone</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>West</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Business</v>
+      </c>
+      <c r="C100">
+        <v>51.164174368920001</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Online</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <v>North</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Wholesale</v>
+      </c>
+      <c r="C101">
+        <v>27.140594043387541</v>
+      </c>
+      <c r="D101" t="str">
+        <v>In-store</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1A974-4A13-48EF-A39F-C23B2B5433D8}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="str" cm="1">
+        <f t="array" ref="A1:A101">Data!L1:L101</f>
+        <v>City</v>
+      </c>
+      <c r="B1" s="3" t="str" cm="1">
+        <f t="array" ref="B1:B101">Data!H1:H101</f>
+        <v>Quantity_Sold</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B2">
+        <v>21.692585158991719</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2:E11">_xlfn.UNIQUE(A2:A101)</f>
+        <v>San Jose</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGEIF($A$2:$A$101,E2,$B$2:$B$101)</f>
+        <v>49.021311999954236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B3">
+        <v>41.58709354469282</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="0">AVERAGEIF($A$2:$A$101,E3,$B$2:$B$101)</f>
+        <v>55.125317265649159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B4">
+        <v>43.145709669464608</v>
+      </c>
+      <c r="E4" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>46.810828770517297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B5">
+        <v>33.95445461556762</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>46.758913720918429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B6">
+        <v>46.774285766679817</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>48.238891556159423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B7">
+        <v>58.081017136290768</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>38.916430852241042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B8">
+        <v>87.723718024210598</v>
+      </c>
+      <c r="E8" t="str">
+        <v>New York</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>51.874855038176904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B9">
+        <v>53.491556256636777</v>
+      </c>
+      <c r="E9" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>51.027499670910316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B10">
+        <v>55.151007814455284</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>56.326482898028566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B11">
+        <v>48.511081684676647</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>61.023145119562585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B12">
+        <v>11.624575694019169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B13">
+        <v>49.469722491015659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="B14">
+        <v>51.204604198820533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B15">
+        <v>99.264842249705723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B16">
+        <v>46.152780704377548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="B17">
+        <v>56.030946846672251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B18">
+        <v>49.305764605895128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="B19">
+        <v>26.626439247609358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B20">
+        <v>72.856456290300414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B21">
+        <v>65.038660653735491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B22">
+        <v>65.820638940860931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B23">
+        <v>31.81225090410522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B24">
+        <v>78.05588621872198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B25">
+        <v>21.96297874415438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B26">
+        <v>61.73714187600541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B27">
+        <v>93.809112516199576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B28">
+        <v>30.189273497386228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B29">
+        <v>38.674045407944561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B30">
+        <v>51.993027301752832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B31">
+        <v>39.930486917676014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B32">
+        <v>18.986731378677352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B33">
+        <v>51.371259496120537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B34">
+        <v>28.753925725477899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B35">
+        <v>59.471848612703631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B36">
+        <v>31.611515315323938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B37">
+        <v>80.99868810035079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B38">
+        <v>34.334934153275263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B39">
+        <v>43.558769675886488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B40">
+        <v>66.27034434739339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B41">
+        <v>25.3827136713209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B42">
+        <v>54.549198692082591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B43">
+        <v>76.142855085648563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B44">
+        <v>17.850335308775449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B45">
+        <v>53.692677170646093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B46">
+        <v>55.197655884968469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B47">
+        <v>65.636457435546205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B48">
+        <v>25.260985782438361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B49">
+        <v>23.590867738314468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B50">
+        <v>60.438831312337953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B51">
+        <v>55.939693464663719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B52">
+        <v>55.009857006917528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B53">
+        <v>56.928964189939506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B54">
+        <v>36.399505568430193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B55">
+        <v>54.645073943220069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B56">
+        <v>55.861449465973621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B57">
+        <v>35.712971639472642</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B58">
+        <v>87.315490222895136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B59">
+        <v>59.476658418235751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B60">
+        <v>26.173930055947029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B61">
+        <v>63.131072172676603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B62">
+        <v>30.506366595453571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="B63">
+        <v>65.741692074849041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B64">
+        <v>73.171911580148077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B65">
+        <v>33.586353632965789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B66">
+        <v>69.267522584886436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B67">
+        <v>58.255618538729962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B68">
+        <v>66.441203199889799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B69">
+        <v>87.93585965307895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B70">
+        <v>45.092237679942592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B71">
+        <v>34.925276712850213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B72">
+        <v>32.209711407489543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B73">
+        <v>33.683794300691233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B74">
+        <v>48.457965811717919</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B75">
+        <v>56.823039496332868</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <v>San Antonio</v>
+      </c>
+      <c r="B76">
+        <v>55.533815986600381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B77">
+        <v>66.543664980720479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B78">
+        <v>50.260037837558137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B79">
+        <v>79.070681543146335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B80">
+        <v>44.706863335240882</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B81">
+        <v>104.4033833317924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B82">
+        <v>62.513346955300122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B83">
+        <v>32.856848871674337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B84">
+        <v>28.582150038777751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B85">
+        <v>59.649448304863697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B86">
+        <v>45.530744293482982</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B87">
+        <v>64.280009881841835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B88">
+        <v>59.464752491470897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <v>Philadelphia</v>
+      </c>
+      <c r="B89">
+        <v>48.543421746862542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="B90">
+        <v>33.0641256386319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B91">
+        <v>19.703055506282709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B92">
+        <v>41.069700958659581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B93">
+        <v>67.127975886469443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B94">
+        <v>54.281874882604079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B95">
+        <v>25.085224425760241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B96">
+        <v>53.46361851702364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B97">
+        <v>57.706347594576727</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B98">
+        <v>32.322851275977342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B99">
+        <v>53.074502118910559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="B100">
+        <v>51.164174368920001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <v>San Jose</v>
+      </c>
+      <c r="B101">
+        <v>27.140594043387541</v>
       </c>
     </row>
   </sheetData>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj\Udemy-data-analyst-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E766958-762C-4D35-916F-AEDB561BD7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B0C34-0786-45EF-A24D-A747FD38C92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,19 @@
     <sheet name="Pie chart (2)" sheetId="7" r:id="rId6"/>
     <sheet name="Area Chart" sheetId="8" r:id="rId7"/>
     <sheet name="Tree Map" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Tree Map'!$E$2:$E$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Tree Map'!$F$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Tree Map'!$F$2:$F$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tree Map'!$E$2:$E$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Tree Map'!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Tree Map'!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3500,6 +3502,74 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box Plot</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Box Plot</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{17339145-0380-4052-BD23-3234A629DB17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Average_Sale_Amount</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3820,6 +3890,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7534,6 +7644,521 @@
       <a:ln w="19050">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8266,6 +8891,89 @@
             <a:xfrm>
               <a:off x="5478780" y="636270"/>
               <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A1A373-4818-A561-3D7D-E8E596602D94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2194560" y="594360"/>
+              <a:ext cx="7178040" cy="3219450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17702,7 +18410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D574A442-B308-48F0-AC3E-6C84BA1265C8}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -20203,4 +20911,529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A35FC4B-1F77-4D2A-ACD5-566E48268466}">
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P12:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str" cm="1">
+        <f t="array" ref="A1:A101">Data!G1:G101</f>
+        <v>Average_Sale_Amount</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>599.34283060224652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>472.34713976576307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>629.53770762013846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>804.60597128160509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>453.16932505533282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>453.17260861016388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>815.84256310147828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>653.48694583058182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>406.10512281300959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>608.51200871719288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>407.31646143750748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>406.85404928594858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>548.39245431320683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>117.3439510684404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>155.01643349739351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>387.54249415180539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>297.43377593311533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>562.84946651905477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>318.39518489575778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>217.5392597329417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>793.12975378431088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>454.84473990269288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>513.50564093758476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>215.05036275730859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>391.12345509496339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>522.18451794197324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>269.80128451553952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>575.13960366913443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>379.87226201623901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>441.66125004134472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>379.65867755412057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>870.45563690178756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>497.30055505241319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>288.45781420882003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>664.50898242063784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>255.83127000579549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>541.77271900095104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>108.06597522404491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>234.36279022031391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>539.37224717382469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>647.69331599908207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>534.27365623799415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>476.8703435223519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>439.77926088214218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>204.29560192651451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>356.03115832105829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>407.87224580804252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>711.42444524378311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>568.72365791369225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>147.39196892745321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>564.81679387895906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>422.98354391673672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>364.61559993880832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>622.33525776817362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>706.19990449919021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>686.25602382323973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>332.15649535547232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>438.15752482975711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>566.25268628071285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>695.10902542447184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>404.16515243094199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>462.86820466723663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>278.73300519879427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>260.75867518386588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>662.50516447883956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>771.24800571416461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>485.59797568393321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>700.7065795784049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>572.32720500952678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>370.97604907897522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>572.27912110168279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>807.60731329319378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>492.83479217800971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>812.92873116280123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>664.38050087504473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>517.40941364763421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>440.19852990682648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>518.35215530710047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>102.4862170798214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>456.06562243249761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>571.42251430234933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>795.57880894830328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>396.34595634527051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>338.30127942136238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>399.64859128309268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>683.08042354041481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>565.75022193193695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>394.04795924659231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>602.65348662267127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>519.41550986960806</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>693.72899810657782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>359.58938122452952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>434.46757068044627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>421.57836937356848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>207.29701037357631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>559.22405541291516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>552.21105443597787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>501.02269132849221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>453.08257332497061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj\Udemy-data-analyst-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B0C34-0786-45EF-A24D-A747FD38C92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A73488-6D06-429D-9843-5561E32F2ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="921" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,21 @@
     <sheet name="Pie chart (2)" sheetId="7" r:id="rId6"/>
     <sheet name="Area Chart" sheetId="8" r:id="rId7"/>
     <sheet name="Tree Map" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="Box plot" sheetId="10" r:id="rId9"/>
+    <sheet name="Scatter Plot" sheetId="11" r:id="rId10"/>
+    <sheet name="Combo Chart" sheetId="12" r:id="rId11"/>
+    <sheet name="Scatter" sheetId="14" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Tree Map'!$E$2:$E$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Tree Map'!$F$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Tree Map'!$F$2:$F$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Box plot'!$A$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Box plot'!$A$2:$A$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="58">
   <si>
     <t>Product_Category</t>
   </si>
@@ -253,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +274,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -323,9 +340,17 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,6 +680,918 @@
         <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-BD"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scatter!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit_Margin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scatter!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>599.34283060224652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472.34713976576307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>629.53770762013846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>804.60597128160509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453.16932505533282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>453.17260861016388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>815.84256310147828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653.48694583058182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>406.10512281300959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>608.51200871719288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>407.31646143750748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406.85404928594858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548.39245431320683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.3439510684404</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155.01643349739351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>387.54249415180539</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>297.43377593311533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>562.84946651905477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>318.39518489575778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217.5392597329417</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>793.12975378431088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>454.84473990269288</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>513.50564093758476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215.05036275730859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>391.12345509496339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>522.18451794197324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>269.80128451553952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>575.13960366913443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>379.87226201623901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>441.66125004134472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>379.65867755412057</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>870.45563690178756</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>497.30055505241319</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>288.45781420882003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>664.50898242063784</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>255.83127000579549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>541.77271900095104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>108.06597522404491</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>234.36279022031391</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>539.37224717382469</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>647.69331599908207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>534.27365623799415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>476.8703435223519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>439.77926088214218</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>204.29560192651451</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>356.03115832105829</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>407.87224580804252</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>711.42444524378311</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>568.72365791369225</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147.39196892745321</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>564.81679387895906</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>422.98354391673672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>364.61559993880832</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>622.33525776817362</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>706.19990449919021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>686.25602382323973</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>332.15649535547232</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>438.15752482975711</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>566.25268628071285</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>695.10902542447184</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>404.16515243094199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>462.86820466723663</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>278.73300519879427</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>260.75867518386588</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>662.50516447883956</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>771.24800571416461</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>485.59797568393321</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>700.7065795784049</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>572.32720500952678</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>370.97604907897522</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>572.27912110168279</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>807.60731329319378</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>492.83479217800971</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>812.92873116280123</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>664.38050087504473</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>517.40941364763421</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>440.19852990682648</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>518.35215530710047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>102.4862170798214</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>456.06562243249761</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>571.42251430234933</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>795.57880894830328</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>396.34595634527051</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>338.30127942136238</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>399.64859128309268</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>683.08042354041481</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>565.75022193193695</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>394.04795924659231</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>602.65348662267127</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>519.41550986960806</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>693.72899810657782</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>359.58938122452952</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>434.46757068044627</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>421.57836937356848</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>207.29701037357631</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>559.22405541291516</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>552.21105443597787</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>501.02269132849221</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>453.08257332497061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scatter!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.1171004989077928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14398189598030309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27472936051232622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26103702654334648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19790984060358521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21173273833087819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32776648957884252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.140842861116417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25470973811700381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17978073475661061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17823187967727799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30987768519871911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28254163489880302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28135096360006379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33054788071543301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20210038416327589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26819529712949641</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1689733243406544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23241663524884421</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18698569456323161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20969959649927181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25951570254369138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11817793167665271</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40923872756854612</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9398261850029812E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8581138721226795E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31581108735000679</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27916626939629358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26241198170521551</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26283455092642799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19877532271530851</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1102745628514168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20758045581937271</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13228382884878881</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29751197334177509</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18529426184978609</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11745028032074881</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16786141583470071</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.24129314542756239</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14362754471960251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11777796044335689</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22436872114919121</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2244966571108723</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.149305682462887</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1528961694381677</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22320499373576361</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5191565850267597E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9253622562344482E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1281555778747564</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.17865528482881529</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23109075655980049</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34753562169495522</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28576596232020202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.18400614700365731</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19809837920973111</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.9747063536219122E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.198148686400761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.1711341361079862</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23227185603380901</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1172769056447677</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.25193465142411731</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.35327389130025783</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18912398515431431</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.24017117220989409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.26901439917111131</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1598779528114164</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.22240924818104171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.2012592400781795</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20976760985488321</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1226990216144534</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.2024510174258943</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.24979982912454499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.34511436077950419</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.29592708260852069</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41531824575115572</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1232652437111951</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28723206367206783</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.21833420057383521</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.41898029332176723</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1191701714644849</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.11602781578192239</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1400607354555978</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.14742449783192391</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.1240867338446302</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.21503937864762079</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.23417559757771589</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38761708392158872</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.29504238381860498</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14230963443375971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.11015853286516419</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24919191715065059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.7976679297935799E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.38314587658543542</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.31794401207212869</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15308243478952949</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.868654709091226E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33538723741654131</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.1885460154747382</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.32378163119734621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F97-4447-9E65-BF0188C39C08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1997237983"/>
+        <c:axId val="1997235583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1997237983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997235583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1997235583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997237983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3438,6 +4375,1639 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Delivery_Days and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Quantity sold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scatter Plot'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivery_Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>21.692585158991719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.58709354469282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.145709669464608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.95445461556762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.774285766679817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.081017136290768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.723718024210598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.491556256636777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.151007814455284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.511081684676647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.624575694019169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.469722491015659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.204604198820533</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.264842249705723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.152780704377548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.030946846672251</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.305764605895128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.626439247609358</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72.856456290300414</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.038660653735491</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.820638940860931</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.81225090410522</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.05588621872198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.96297874415438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.73714187600541</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.809112516199576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.189273497386228</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.674045407944561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.993027301752832</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.930486917676014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.986731378677352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.371259496120537</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.753925725477899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59.471848612703631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.611515315323938</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80.99868810035079</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.334934153275263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.558769675886488</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.27034434739339</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.3827136713209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.549198692082591</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76.142855085648563</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.850335308775449</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.692677170646093</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55.197655884968469</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65.636457435546205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.260985782438361</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.590867738314468</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.438831312337953</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55.939693464663719</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55.009857006917528</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.928964189939506</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.399505568430193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.645073943220069</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.861449465973621</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.712971639472642</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.315490222895136</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.476658418235751</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.173930055947029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.131072172676603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.506366595453571</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65.741692074849041</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>73.171911580148077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.586353632965789</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.267522584886436</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.255618538729962</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.441203199889799</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.93585965307895</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.092237679942592</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.925276712850213</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.209711407489543</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.683794300691233</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.457965811717919</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.823039496332868</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55.533815986600381</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66.543664980720479</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50.260037837558137</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79.070681543146335</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.706863335240882</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>104.4033833317924</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62.513346955300122</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.856848871674337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.582150038777751</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>59.649448304863697</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.530744293482982</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>64.280009881841835</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>59.464752491470897</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.543421746862542</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.0641256386319</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19.703055506282709</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41.069700958659581</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>67.127975886469443</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.281874882604079</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25.085224425760241</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>53.46361851702364</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>57.706347594576727</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32.322851275977342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>53.074502118910559</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.164174368920001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.140594043387541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.811144682411266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8012499540924538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0104873994363661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0939611875294837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0998690570415128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2456998646949966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8647591412348108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7152410299574132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2405912634237977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0288776681174978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4232297561777791</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.750715816324262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.931771658528755</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5553536437970177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6646280239591844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5030269268868932</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1023039510450463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.231349268585717</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3585943681276529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1350369628202177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1214958497639742</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5106816848864089</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5020717030418531</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9431419019087111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2907518991702949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.7372631150646978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.070153078839791</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3721029199968786</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1168489736991756</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.482521027153771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6334829746684498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4611863311108841</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.4350845115919242</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0047141041920558</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1481895608395503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2572310911425841</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2397970835702168</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5932351212896909</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8889046022067628</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7681308978786143</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9346105038118138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8217599209744231</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.391060998990294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3393450976600771</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7331964921936969</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1202404273452902</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9722661653266131</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8815729562220969</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8746418054536562</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9102846410024767</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.028547907328913</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0080930310356884</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.939484763255118</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.4142543354753121</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7859392800908847</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9295153551612518</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8927013893056359</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6042442148223031</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.929450265832779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0705271039434576</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.600548984014829</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4279598214684439</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7753439006183402</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.5580608009335544</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.22833340008685</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5150154200946098</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9389977047789451</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.8483635187106402</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4498966056967122</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.969617875602895</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7337485348890489</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.2899354270025682</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.5019279208872431</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.1531139261115326</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.622500309087072</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.157761616910481</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.2391498228691544</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.7441648170384667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.088919118799148</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.787107359484855</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4069272717344461</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4872985094313931</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1554925808046521</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.7068542315149471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.8369039927712101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.3742832701451295</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.763279513898901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.9840547173667664</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.9598882777800517</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.1547366152952367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.277431597343472</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.046248154539315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.0778200873693171</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9255076913470872</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.6193226438327839</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.2487634932304861</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.2344005380713279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F709-4C62-A5EE-D5947E633C6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1997227423"/>
+        <c:axId val="1997224543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1997227423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997224543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1997224543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997227423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Avg Sale and Total Quantity </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Chart'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total AVG Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Combo Chart'!$E$2:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Chart'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13905.519695897305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11513.562530759533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12803.220166118563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9724.7162801606737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EDE-4703-AC06-A964111129B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1997153503"/>
+        <c:axId val="1997150623"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Chart'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Quantity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Combo Chart'!$E$2:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Chart'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1265.0069190395252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1161.4200316244196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1496.6149332774798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1121.5672901584226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EDE-4703-AC06-A964111129B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1997241823"/>
+        <c:axId val="1997240863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1997153503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>region</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997150623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1997150623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0917030567685589E-2"/>
+              <c:y val="0.41417857875353359"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997153503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1997240863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1997241823"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1997241823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1997240863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3515,7 +6085,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Box Plot</cx:v>
+          <cx:v>Average sale Amount</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -3526,7 +6096,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -3535,7 +6105,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Box Plot</a:t>
+            <a:t>Average sale Amount</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -3571,6 +6141,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4433,6 +7123,1551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8597,20 +12832,102 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C201E41A-1992-958F-7076-9E95EAFE095E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9ED4EC9-B86C-A159-B0CF-973731CB510C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>353568</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7737</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47612</xdr:rowOff>
+      <xdr:rowOff>65196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>741118</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>130939</xdr:rowOff>
+      <xdr:rowOff>148523</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9006,6 +13323,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D81BC6-4F7E-B465-2441-EB67DD612305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -9520,6 +13878,831 @@
         <row r="101">
           <cell r="A101" t="str">
             <v>Sports &amp; Outdoors</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>Average_Sale_Amount</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Profit_Margin</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2">
+            <v>599.34283060224652</v>
+          </cell>
+          <cell r="J2">
+            <v>0.1171004989077928</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>472.34713976576307</v>
+          </cell>
+          <cell r="J3">
+            <v>0.14398189598030309</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>629.53770762013846</v>
+          </cell>
+          <cell r="J4">
+            <v>0.27472936051232622</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>804.60597128160509</v>
+          </cell>
+          <cell r="J5">
+            <v>0.26103702654334648</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>453.16932505533282</v>
+          </cell>
+          <cell r="J6">
+            <v>0.19790984060358521</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>453.17260861016388</v>
+          </cell>
+          <cell r="J7">
+            <v>0.21173273833087819</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>815.84256310147828</v>
+          </cell>
+          <cell r="J8">
+            <v>0.32776648957884252</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>653.48694583058182</v>
+          </cell>
+          <cell r="J9">
+            <v>0.140842861116417</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>406.10512281300959</v>
+          </cell>
+          <cell r="J10">
+            <v>0.25470973811700381</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>608.51200871719288</v>
+          </cell>
+          <cell r="J11">
+            <v>0.17978073475661061</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>407.31646143750748</v>
+          </cell>
+          <cell r="J12">
+            <v>0.17823187967727799</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>406.85404928594858</v>
+          </cell>
+          <cell r="J13">
+            <v>0.30987768519871911</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>548.39245431320683</v>
+          </cell>
+          <cell r="J14">
+            <v>0.28254163489880302</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>117.3439510684404</v>
+          </cell>
+          <cell r="J15">
+            <v>0.28135096360006379</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>155.01643349739351</v>
+          </cell>
+          <cell r="J16">
+            <v>0.33054788071543301</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>387.54249415180539</v>
+          </cell>
+          <cell r="J17">
+            <v>0.20210038416327589</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>297.43377593311533</v>
+          </cell>
+          <cell r="J18">
+            <v>0.26819529712949641</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>562.84946651905477</v>
+          </cell>
+          <cell r="J19">
+            <v>0.1689733243406544</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>318.39518489575778</v>
+          </cell>
+          <cell r="J20">
+            <v>0.23241663524884421</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>217.5392597329417</v>
+          </cell>
+          <cell r="J21">
+            <v>0.18698569456323161</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>793.12975378431088</v>
+          </cell>
+          <cell r="J22">
+            <v>0.20969959649927181</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>454.84473990269288</v>
+          </cell>
+          <cell r="J23">
+            <v>0.25951570254369138</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>513.50564093758476</v>
+          </cell>
+          <cell r="J24">
+            <v>0.11817793167665271</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>215.05036275730859</v>
+          </cell>
+          <cell r="J25">
+            <v>0.40923872756854612</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>391.12345509496339</v>
+          </cell>
+          <cell r="J26">
+            <v>9.9398261850029812E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>522.18451794197324</v>
+          </cell>
+          <cell r="J27">
+            <v>7.8581138721226795E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>269.80128451553952</v>
+          </cell>
+          <cell r="J28">
+            <v>0.31581108735000679</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29">
+            <v>575.13960366913443</v>
+          </cell>
+          <cell r="J29">
+            <v>0.27916626939629358</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30">
+            <v>379.87226201623901</v>
+          </cell>
+          <cell r="J30">
+            <v>0.26241198170521551</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31">
+            <v>441.66125004134472</v>
+          </cell>
+          <cell r="J31">
+            <v>0.26283455092642799</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>379.65867755412057</v>
+          </cell>
+          <cell r="J32">
+            <v>0.19877532271530851</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>870.45563690178756</v>
+          </cell>
+          <cell r="J33">
+            <v>0.1102745628514168</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>497.30055505241319</v>
+          </cell>
+          <cell r="J34">
+            <v>0.20758045581937271</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>288.45781420882003</v>
+          </cell>
+          <cell r="J35">
+            <v>0.13228382884878881</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36">
+            <v>664.50898242063784</v>
+          </cell>
+          <cell r="J36">
+            <v>0.29751197334177509</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37">
+            <v>255.83127000579549</v>
+          </cell>
+          <cell r="J37">
+            <v>0.18529426184978609</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38">
+            <v>541.77271900095104</v>
+          </cell>
+          <cell r="J38">
+            <v>0.11745028032074881</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39">
+            <v>108.06597522404491</v>
+          </cell>
+          <cell r="J39">
+            <v>0.16786141583470071</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40">
+            <v>234.36279022031391</v>
+          </cell>
+          <cell r="J40">
+            <v>0.24129314542756239</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41">
+            <v>539.37224717382469</v>
+          </cell>
+          <cell r="J41">
+            <v>0.14362754471960251</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>647.69331599908207</v>
+          </cell>
+          <cell r="J42">
+            <v>0.11777796044335689</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>534.27365623799415</v>
+          </cell>
+          <cell r="J43">
+            <v>0.22436872114919121</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>476.8703435223519</v>
+          </cell>
+          <cell r="J44">
+            <v>0.2244966571108723</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>439.77926088214218</v>
+          </cell>
+          <cell r="J45">
+            <v>0.149305682462887</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>204.29560192651451</v>
+          </cell>
+          <cell r="J46">
+            <v>0.1528961694381677</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>356.03115832105829</v>
+          </cell>
+          <cell r="J47">
+            <v>0.22320499373576361</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>407.87224580804252</v>
+          </cell>
+          <cell r="J48">
+            <v>5.5191565850267597E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>711.42444524378311</v>
+          </cell>
+          <cell r="J49">
+            <v>5.9253622562344482E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>568.72365791369225</v>
+          </cell>
+          <cell r="J50">
+            <v>0.1281555778747564</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>147.39196892745321</v>
+          </cell>
+          <cell r="J51">
+            <v>0.17865528482881529</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>564.81679387895906</v>
+          </cell>
+          <cell r="J52">
+            <v>0.23109075655980049</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>422.98354391673672</v>
+          </cell>
+          <cell r="J53">
+            <v>0.34753562169495522</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>364.61559993880832</v>
+          </cell>
+          <cell r="J54">
+            <v>0.28576596232020202</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>622.33525776817362</v>
+          </cell>
+          <cell r="J55">
+            <v>0.18400614700365731</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>706.19990449919021</v>
+          </cell>
+          <cell r="J56">
+            <v>0.19809837920973111</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>686.25602382323973</v>
+          </cell>
+          <cell r="J57">
+            <v>9.9747063536219122E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>332.15649535547232</v>
+          </cell>
+          <cell r="J58">
+            <v>0.198148686400761</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>438.15752482975711</v>
+          </cell>
+          <cell r="J59">
+            <v>0.1711341361079862</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>566.25268628071285</v>
+          </cell>
+          <cell r="J60">
+            <v>0.23227185603380901</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>695.10902542447184</v>
+          </cell>
+          <cell r="J61">
+            <v>0.1172769056447677</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>404.16515243094199</v>
+          </cell>
+          <cell r="J62">
+            <v>0.25193465142411731</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>462.86820466723663</v>
+          </cell>
+          <cell r="J63">
+            <v>0.35327389130025783</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>278.73300519879427</v>
+          </cell>
+          <cell r="J64">
+            <v>0.18912398515431431</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>260.75867518386588</v>
+          </cell>
+          <cell r="J65">
+            <v>0.24017117220989409</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>662.50516447883956</v>
+          </cell>
+          <cell r="J66">
+            <v>0.26901439917111131</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>771.24800571416461</v>
+          </cell>
+          <cell r="J67">
+            <v>0.1598779528114164</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>485.59797568393321</v>
+          </cell>
+          <cell r="J68">
+            <v>0.22240924818104171</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>700.7065795784049</v>
+          </cell>
+          <cell r="J69">
+            <v>0.2012592400781795</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>572.32720500952678</v>
+          </cell>
+          <cell r="J70">
+            <v>0.20976760985488321</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>370.97604907897522</v>
+          </cell>
+          <cell r="J71">
+            <v>0.1226990216144534</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>572.27912110168279</v>
+          </cell>
+          <cell r="J72">
+            <v>0.2024510174258943</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73">
+            <v>807.60731329319378</v>
+          </cell>
+          <cell r="J73">
+            <v>0.24979982912454499</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74">
+            <v>492.83479217800971</v>
+          </cell>
+          <cell r="J74">
+            <v>0.34511436077950419</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>812.92873116280123</v>
+          </cell>
+          <cell r="J75">
+            <v>0.29592708260852069</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76">
+            <v>0</v>
+          </cell>
+          <cell r="J76">
+            <v>0.41531824575115572</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>664.38050087504473</v>
+          </cell>
+          <cell r="J77">
+            <v>0.1232652437111951</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78">
+            <v>517.40941364763421</v>
+          </cell>
+          <cell r="J78">
+            <v>0.28723206367206783</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79">
+            <v>440.19852990682648</v>
+          </cell>
+          <cell r="J79">
+            <v>0.21833420057383521</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80">
+            <v>518.35215530710047</v>
+          </cell>
+          <cell r="J80">
+            <v>0.41898029332176723</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81">
+            <v>102.4862170798214</v>
+          </cell>
+          <cell r="J81">
+            <v>0.1191701714644849</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82">
+            <v>456.06562243249761</v>
+          </cell>
+          <cell r="J82">
+            <v>0.11602781578192239</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83">
+            <v>571.42251430234933</v>
+          </cell>
+          <cell r="J83">
+            <v>0.1400607354555978</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="G84">
+            <v>795.57880894830328</v>
+          </cell>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="G85">
+            <v>396.34595634527051</v>
+          </cell>
+          <cell r="J85">
+            <v>0.14742449783192391</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="G86">
+            <v>338.30127942136238</v>
+          </cell>
+          <cell r="J86">
+            <v>0.1240867338446302</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="G87">
+            <v>399.64859128309268</v>
+          </cell>
+          <cell r="J87">
+            <v>0.21503937864762079</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="G88">
+            <v>683.08042354041481</v>
+          </cell>
+          <cell r="J88">
+            <v>0.23417559757771589</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="G89">
+            <v>565.75022193193695</v>
+          </cell>
+          <cell r="J89">
+            <v>0.38761708392158872</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="G90">
+            <v>394.04795924659231</v>
+          </cell>
+          <cell r="J90">
+            <v>0.29504238381860498</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91">
+            <v>602.65348662267127</v>
+          </cell>
+          <cell r="J91">
+            <v>0.14230963443375971</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="G92">
+            <v>519.41550986960806</v>
+          </cell>
+          <cell r="J92">
+            <v>0.11015853286516419</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="G93">
+            <v>693.72899810657782</v>
+          </cell>
+          <cell r="J93">
+            <v>0.24919191715065059</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="G94">
+            <v>359.58938122452952</v>
+          </cell>
+          <cell r="J94">
+            <v>6.7976679297935799E-2</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="G95">
+            <v>434.46757068044627</v>
+          </cell>
+          <cell r="J95">
+            <v>0.38314587658543542</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="G96">
+            <v>421.57836937356848</v>
+          </cell>
+          <cell r="J96">
+            <v>0.31794401207212869</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="G97">
+            <v>207.29701037357631</v>
+          </cell>
+          <cell r="J97">
+            <v>0.15308243478952949</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="G98">
+            <v>559.22405541291516</v>
+          </cell>
+          <cell r="J98">
+            <v>2.868654709091226E-2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="G99">
+            <v>552.21105443597787</v>
+          </cell>
+          <cell r="J99">
+            <v>0.33538723741654131</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="G100">
+            <v>501.02269132849221</v>
+          </cell>
+          <cell r="J100">
+            <v>0.1885460154747382</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="G101">
+            <v>453.08257332497061</v>
+          </cell>
+          <cell r="J101">
+            <v>0.32378163119734621</v>
           </cell>
         </row>
       </sheetData>
@@ -9817,7 +15000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A81" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13674,6 +18859,3358 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131D4E0B-D87A-49A9-8237-302499DED34D}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str" cm="1">
+        <f t="array" ref="A1:A101">Data!H1:H101</f>
+        <v>Quantity_Sold</v>
+      </c>
+      <c r="B1" s="4" t="str" cm="1">
+        <f t="array" ref="B1:B101">Data!K1:K101</f>
+        <v>Delivery_Days</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>21.692585158991719</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.811144682411266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>41.58709354469282</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.8012499540924538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43.145709669464608</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.0104873994363661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>33.95445461556762</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.0939611875294837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>46.774285766679817</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.0998690570415128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>58.081017136290768</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.2456998646949966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>87.723718024210598</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.8647591412348108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>53.491556256636777</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.7152410299574132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>55.151007814455284</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.2405912634237977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>48.511081684676647</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.0288776681174978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11.624575694019169</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.4232297561777791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>49.469722491015659</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.750715816324262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>51.204604198820533</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.931771658528755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>99.264842249705723</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7.5553536437970177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>46.152780704377548</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.6646280239591844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>56.030946846672251</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.5030269268868932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>49.305764605895128</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8.1023039510450463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>26.626439247609358</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.231349268585717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>72.856456290300414</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7.3585943681276529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>65.038660653735491</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.1350369628202177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>65.820638940860931</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.1214958497639742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>31.81225090410522</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8.5106816848864089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>78.05588621872198</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.5020717030418531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>21.96297874415438</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.9431419019087111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>61.73714187600541</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6.2907518991702949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>93.809112516199576</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.7372631150646978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>30.189273497386228</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.070153078839791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>38.674045407944561</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6.3721029199968786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>51.993027301752832</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7.1168489736991756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>39.930486917676014</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.482521027153771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>18.986731378677352</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.6334829746684498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>51.371259496120537</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>28.753925725477899</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.4611863311108841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>59.471848612703631</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.4350845115919242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>31.611515315323938</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8.0047141041920558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>80.99868810035079</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5.1481895608395503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>34.334934153275263</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8.2572310911425841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43.558769675886488</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.2397970835702168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>66.27034434739339</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.5932351212896909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>25.3827136713209</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4.8889046022067628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>54.549198692082591</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5.7681308978786143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>76.142855085648563</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4.9346105038118138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>17.850335308775449</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>53.692677170646093</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4.8217599209744231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>55.197655884968469</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.391060998990294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>65.636457435546205</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6.3393450976600771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>25.260985782438361</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5.7331964921936969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>23.590867738314468</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3.1202404273452902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>60.438831312337953</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.9722661653266131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>55.939693464663719</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.8815729562220969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>55.009857006917528</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4.8746418054536562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>56.928964189939506</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6.9102846410024767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>36.399505568430193</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3.028547907328913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54.645073943220069</v>
+      </c>
+      <c r="B55" s="2">
+        <v>6.0080930310356884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55.861449465973621</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.939484763255118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>35.712971639472642</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.4142543354753121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>87.315490222895136</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4.7859392800908847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>59.476658418235751</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2.9295153551612518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>26.173930055947029</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3.8927013893056359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>63.131072172676603</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.6042442148223031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>30.506366595453571</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8.929450265832779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>65.741692074849041</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5.0705271039434576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>73.171911580148077</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3.600548984014829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>33.586353632965789</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5.4279598214684439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>69.267522584886436</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.7753439006183402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>58.255618538729962</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4.5580608009335544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66.441203199889799</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6.22833340008685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>87.93585965307895</v>
+      </c>
+      <c r="B69" s="2">
+        <v>6.5150154200946098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45.092237679942592</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3.9389977047789451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>34.925276712850213</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3.8483635187106402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>32.209711407489543</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4.4498966056967122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>33.683794300691233</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>48.457965811717919</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.969617875602895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>56.823039496332868</v>
+      </c>
+      <c r="B75" s="2">
+        <v>7.7337485348890489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>55.533815986600381</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8.2899354270025682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>66.543664980720479</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4.5019279208872431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>50.260037837558137</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6.1531139261115326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>79.070681543146335</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5.622500309087072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44.706863335240882</v>
+      </c>
+      <c r="B80" s="2">
+        <v>11.157761616910481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>104.4033833317924</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7.2391498228691544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>62.513346955300122</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4.7441648170384667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>32.856848871674337</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3.088919118799148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>28.582150038777751</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.787107359484855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>59.649448304863697</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5.4069272717344461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45.530744293482982</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3.4872985094313931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>64.280009881841835</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2.1554925808046521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>59.464752491470897</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3.7068542315149471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>48.543421746862542</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2.8369039927712101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>33.0641256386319</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8.3742832701451295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>19.703055506282709</v>
+      </c>
+      <c r="B91" s="2">
+        <v>6.763279513898901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>41.069700958659581</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4.9840547173667664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>67.127975886469443</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7.9598882777800517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>54.281874882604079</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5.1547366152952367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>25.085224425760241</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3.277431597343472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>53.46361851702364</v>
+      </c>
+      <c r="B96" s="2">
+        <v>8.046248154539315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>57.706347594576727</v>
+      </c>
+      <c r="B97" s="2">
+        <v>6.0778200873693171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>32.322851275977342</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2.9255076913470872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>53.074502118910559</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4.6193226438327839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>51.164174368920001</v>
+      </c>
+      <c r="B100" s="2">
+        <v>3.2487634932304861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>27.140594043387541</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2.2344005380713279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CEF259-7BDC-4663-A456-DD0332163D41}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str">
+        <f>Data!G1</f>
+        <v>Average_Sale_Amount</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <f>Data!H1</f>
+        <v>Quantity_Sold</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <f>Data!D1</f>
+        <v>Region</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>Data!G2</f>
+        <v>599.34283060224652</v>
+      </c>
+      <c r="B2" s="2">
+        <f>Data!H2</f>
+        <v>21.692585158991719</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Data!D2</f>
+        <v>South</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2:E5">_xlfn.UNIQUE(C2:C101)</f>
+        <v>South</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUMIF($C$2:$C$101,E2,$A$2:$A$101)</f>
+        <v>13905.519695897305</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUMIF($C$2:$C$101,E2,$B$2:$B$101)</f>
+        <v>1265.0069190395252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>Data!G3</f>
+        <v>472.34713976576307</v>
+      </c>
+      <c r="B3" s="2">
+        <f>Data!H3</f>
+        <v>41.58709354469282</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Data!D3</f>
+        <v>East</v>
+      </c>
+      <c r="E3" t="str">
+        <v>East</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUMIF($C$2:$C$101,E3,$A$2:$A$101)</f>
+        <v>11513.562530759533</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G5" si="0">SUMIF($C$2:$C$101,E3,$B$2:$B$101)</f>
+        <v>1161.4200316244196</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>Data!G4</f>
+        <v>629.53770762013846</v>
+      </c>
+      <c r="B4" s="2">
+        <f>Data!H4</f>
+        <v>43.145709669464608</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Data!D4</f>
+        <v>North</v>
+      </c>
+      <c r="E4" t="str">
+        <v>North</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SUMIF($C$2:$C$101,E4,$A$2:$A$101)</f>
+        <v>12803.220166118563</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1496.6149332774798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>Data!G5</f>
+        <v>804.60597128160509</v>
+      </c>
+      <c r="B5" s="2">
+        <f>Data!H5</f>
+        <v>33.95445461556762</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Data!D5</f>
+        <v>East</v>
+      </c>
+      <c r="E5" t="str">
+        <v>West</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUMIF($C$2:$C$101,E5,$A$2:$A$101)</f>
+        <v>9724.7162801606737</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1121.5672901584226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>Data!G6</f>
+        <v>453.16932505533282</v>
+      </c>
+      <c r="B6" s="2">
+        <f>Data!H6</f>
+        <v>46.774285766679817</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Data!D6</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>Data!G7</f>
+        <v>453.17260861016388</v>
+      </c>
+      <c r="B7" s="2">
+        <f>Data!H7</f>
+        <v>58.081017136290768</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Data!D7</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>Data!G8</f>
+        <v>815.84256310147828</v>
+      </c>
+      <c r="B8" s="2">
+        <f>Data!H8</f>
+        <v>87.723718024210598</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Data!D8</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>Data!G9</f>
+        <v>653.48694583058182</v>
+      </c>
+      <c r="B9" s="2">
+        <f>Data!H9</f>
+        <v>53.491556256636777</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Data!D9</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>Data!G10</f>
+        <v>406.10512281300959</v>
+      </c>
+      <c r="B10" s="2">
+        <f>Data!H10</f>
+        <v>55.151007814455284</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Data!D10</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>Data!G11</f>
+        <v>608.51200871719288</v>
+      </c>
+      <c r="B11" s="2">
+        <f>Data!H11</f>
+        <v>48.511081684676647</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Data!D11</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>Data!G12</f>
+        <v>407.31646143750748</v>
+      </c>
+      <c r="B12" s="2">
+        <f>Data!H12</f>
+        <v>11.624575694019169</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Data!D12</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>Data!G13</f>
+        <v>406.85404928594858</v>
+      </c>
+      <c r="B13" s="2">
+        <f>Data!H13</f>
+        <v>49.469722491015659</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Data!D13</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>Data!G14</f>
+        <v>548.39245431320683</v>
+      </c>
+      <c r="B14" s="2">
+        <f>Data!H14</f>
+        <v>51.204604198820533</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Data!D14</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>Data!G15</f>
+        <v>117.3439510684404</v>
+      </c>
+      <c r="B15" s="2">
+        <f>Data!H15</f>
+        <v>99.264842249705723</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Data!D15</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>Data!G16</f>
+        <v>155.01643349739351</v>
+      </c>
+      <c r="B16" s="2">
+        <f>Data!H16</f>
+        <v>46.152780704377548</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Data!D16</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>Data!G17</f>
+        <v>387.54249415180539</v>
+      </c>
+      <c r="B17" s="2">
+        <f>Data!H17</f>
+        <v>56.030946846672251</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Data!D17</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f>Data!G18</f>
+        <v>297.43377593311533</v>
+      </c>
+      <c r="B18" s="2">
+        <f>Data!H18</f>
+        <v>49.305764605895128</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Data!D18</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f>Data!G19</f>
+        <v>562.84946651905477</v>
+      </c>
+      <c r="B19" s="2">
+        <f>Data!H19</f>
+        <v>26.626439247609358</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Data!D19</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f>Data!G20</f>
+        <v>318.39518489575778</v>
+      </c>
+      <c r="B20" s="2">
+        <f>Data!H20</f>
+        <v>72.856456290300414</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Data!D20</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f>Data!G21</f>
+        <v>217.5392597329417</v>
+      </c>
+      <c r="B21" s="2">
+        <f>Data!H21</f>
+        <v>65.038660653735491</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Data!D21</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f>Data!G22</f>
+        <v>793.12975378431088</v>
+      </c>
+      <c r="B22" s="2">
+        <f>Data!H22</f>
+        <v>65.820638940860931</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Data!D22</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f>Data!G23</f>
+        <v>454.84473990269288</v>
+      </c>
+      <c r="B23" s="2">
+        <f>Data!H23</f>
+        <v>31.81225090410522</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Data!D23</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f>Data!G24</f>
+        <v>513.50564093758476</v>
+      </c>
+      <c r="B24" s="2">
+        <f>Data!H24</f>
+        <v>78.05588621872198</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Data!D24</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f>Data!G25</f>
+        <v>215.05036275730859</v>
+      </c>
+      <c r="B25" s="2">
+        <f>Data!H25</f>
+        <v>21.96297874415438</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Data!D25</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f>Data!G26</f>
+        <v>391.12345509496339</v>
+      </c>
+      <c r="B26" s="2">
+        <f>Data!H26</f>
+        <v>61.73714187600541</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Data!D26</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f>Data!G27</f>
+        <v>522.18451794197324</v>
+      </c>
+      <c r="B27" s="2">
+        <f>Data!H27</f>
+        <v>93.809112516199576</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Data!D27</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f>Data!G28</f>
+        <v>269.80128451553952</v>
+      </c>
+      <c r="B28" s="2">
+        <f>Data!H28</f>
+        <v>30.189273497386228</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Data!D28</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f>Data!G29</f>
+        <v>575.13960366913443</v>
+      </c>
+      <c r="B29" s="2">
+        <f>Data!H29</f>
+        <v>38.674045407944561</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Data!D29</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f>Data!G30</f>
+        <v>379.87226201623901</v>
+      </c>
+      <c r="B30" s="2">
+        <f>Data!H30</f>
+        <v>51.993027301752832</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Data!D30</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f>Data!G31</f>
+        <v>441.66125004134472</v>
+      </c>
+      <c r="B31" s="2">
+        <f>Data!H31</f>
+        <v>39.930486917676014</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Data!D31</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f>Data!G32</f>
+        <v>379.65867755412057</v>
+      </c>
+      <c r="B32" s="2">
+        <f>Data!H32</f>
+        <v>18.986731378677352</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Data!D32</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f>Data!G33</f>
+        <v>870.45563690178756</v>
+      </c>
+      <c r="B33" s="2">
+        <f>Data!H33</f>
+        <v>51.371259496120537</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Data!D33</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f>Data!G34</f>
+        <v>497.30055505241319</v>
+      </c>
+      <c r="B34" s="2">
+        <f>Data!H34</f>
+        <v>28.753925725477899</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Data!D34</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f>Data!G35</f>
+        <v>288.45781420882003</v>
+      </c>
+      <c r="B35" s="2">
+        <f>Data!H35</f>
+        <v>59.471848612703631</v>
+      </c>
+      <c r="C35" t="str">
+        <f>Data!D35</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f>Data!G36</f>
+        <v>664.50898242063784</v>
+      </c>
+      <c r="B36" s="2">
+        <f>Data!H36</f>
+        <v>31.611515315323938</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Data!D36</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f>Data!G37</f>
+        <v>255.83127000579549</v>
+      </c>
+      <c r="B37" s="2">
+        <f>Data!H37</f>
+        <v>80.99868810035079</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Data!D37</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f>Data!G38</f>
+        <v>541.77271900095104</v>
+      </c>
+      <c r="B38" s="2">
+        <f>Data!H38</f>
+        <v>34.334934153275263</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Data!D38</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f>Data!G39</f>
+        <v>108.06597522404491</v>
+      </c>
+      <c r="B39" s="2">
+        <f>Data!H39</f>
+        <v>43.558769675886488</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Data!D39</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f>Data!G40</f>
+        <v>234.36279022031391</v>
+      </c>
+      <c r="B40" s="2">
+        <f>Data!H40</f>
+        <v>66.27034434739339</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Data!D40</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f>Data!G41</f>
+        <v>539.37224717382469</v>
+      </c>
+      <c r="B41" s="2">
+        <f>Data!H41</f>
+        <v>25.3827136713209</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Data!D41</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f>Data!G42</f>
+        <v>647.69331599908207</v>
+      </c>
+      <c r="B42" s="2">
+        <f>Data!H42</f>
+        <v>54.549198692082591</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Data!D42</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f>Data!G43</f>
+        <v>534.27365623799415</v>
+      </c>
+      <c r="B43" s="2">
+        <f>Data!H43</f>
+        <v>76.142855085648563</v>
+      </c>
+      <c r="C43" t="str">
+        <f>Data!D43</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f>Data!G44</f>
+        <v>476.8703435223519</v>
+      </c>
+      <c r="B44" s="2">
+        <f>Data!H44</f>
+        <v>17.850335308775449</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Data!D44</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f>Data!G45</f>
+        <v>439.77926088214218</v>
+      </c>
+      <c r="B45" s="2">
+        <f>Data!H45</f>
+        <v>53.692677170646093</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Data!D45</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <f>Data!G46</f>
+        <v>204.29560192651451</v>
+      </c>
+      <c r="B46" s="2">
+        <f>Data!H46</f>
+        <v>55.197655884968469</v>
+      </c>
+      <c r="C46" t="str">
+        <f>Data!D46</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <f>Data!G47</f>
+        <v>356.03115832105829</v>
+      </c>
+      <c r="B47" s="2">
+        <f>Data!H47</f>
+        <v>65.636457435546205</v>
+      </c>
+      <c r="C47" t="str">
+        <f>Data!D47</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <f>Data!G48</f>
+        <v>407.87224580804252</v>
+      </c>
+      <c r="B48" s="2">
+        <f>Data!H48</f>
+        <v>25.260985782438361</v>
+      </c>
+      <c r="C48" t="str">
+        <f>Data!D48</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <f>Data!G49</f>
+        <v>711.42444524378311</v>
+      </c>
+      <c r="B49" s="2">
+        <f>Data!H49</f>
+        <v>23.590867738314468</v>
+      </c>
+      <c r="C49" t="str">
+        <f>Data!D49</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f>Data!G50</f>
+        <v>568.72365791369225</v>
+      </c>
+      <c r="B50" s="2">
+        <f>Data!H50</f>
+        <v>60.438831312337953</v>
+      </c>
+      <c r="C50" t="str">
+        <f>Data!D50</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <f>Data!G51</f>
+        <v>147.39196892745321</v>
+      </c>
+      <c r="B51" s="2">
+        <f>Data!H51</f>
+        <v>55.939693464663719</v>
+      </c>
+      <c r="C51" t="str">
+        <f>Data!D51</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <f>Data!G52</f>
+        <v>564.81679387895906</v>
+      </c>
+      <c r="B52" s="2">
+        <f>Data!H52</f>
+        <v>55.009857006917528</v>
+      </c>
+      <c r="C52" t="str">
+        <f>Data!D52</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <f>Data!G53</f>
+        <v>422.98354391673672</v>
+      </c>
+      <c r="B53" s="2">
+        <f>Data!H53</f>
+        <v>56.928964189939506</v>
+      </c>
+      <c r="C53" t="str">
+        <f>Data!D53</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <f>Data!G54</f>
+        <v>364.61559993880832</v>
+      </c>
+      <c r="B54" s="2">
+        <f>Data!H54</f>
+        <v>36.399505568430193</v>
+      </c>
+      <c r="C54" t="str">
+        <f>Data!D54</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <f>Data!G55</f>
+        <v>622.33525776817362</v>
+      </c>
+      <c r="B55" s="2">
+        <f>Data!H55</f>
+        <v>54.645073943220069</v>
+      </c>
+      <c r="C55" t="str">
+        <f>Data!D55</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <f>Data!G56</f>
+        <v>706.19990449919021</v>
+      </c>
+      <c r="B56" s="2">
+        <f>Data!H56</f>
+        <v>55.861449465973621</v>
+      </c>
+      <c r="C56" t="str">
+        <f>Data!D56</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f>Data!G57</f>
+        <v>686.25602382323973</v>
+      </c>
+      <c r="B57" s="2">
+        <f>Data!H57</f>
+        <v>35.712971639472642</v>
+      </c>
+      <c r="C57" t="str">
+        <f>Data!D57</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f>Data!G58</f>
+        <v>332.15649535547232</v>
+      </c>
+      <c r="B58" s="2">
+        <f>Data!H58</f>
+        <v>87.315490222895136</v>
+      </c>
+      <c r="C58" t="str">
+        <f>Data!D58</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f>Data!G59</f>
+        <v>438.15752482975711</v>
+      </c>
+      <c r="B59" s="2">
+        <f>Data!H59</f>
+        <v>59.476658418235751</v>
+      </c>
+      <c r="C59" t="str">
+        <f>Data!D59</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f>Data!G60</f>
+        <v>566.25268628071285</v>
+      </c>
+      <c r="B60" s="2">
+        <f>Data!H60</f>
+        <v>26.173930055947029</v>
+      </c>
+      <c r="C60" t="str">
+        <f>Data!D60</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f>Data!G61</f>
+        <v>695.10902542447184</v>
+      </c>
+      <c r="B61" s="2">
+        <f>Data!H61</f>
+        <v>63.131072172676603</v>
+      </c>
+      <c r="C61" t="str">
+        <f>Data!D61</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f>Data!G62</f>
+        <v>404.16515243094199</v>
+      </c>
+      <c r="B62" s="2">
+        <f>Data!H62</f>
+        <v>30.506366595453571</v>
+      </c>
+      <c r="C62" t="str">
+        <f>Data!D62</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f>Data!G63</f>
+        <v>462.86820466723663</v>
+      </c>
+      <c r="B63" s="2">
+        <f>Data!H63</f>
+        <v>65.741692074849041</v>
+      </c>
+      <c r="C63" t="str">
+        <f>Data!D63</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f>Data!G64</f>
+        <v>278.73300519879427</v>
+      </c>
+      <c r="B64" s="2">
+        <f>Data!H64</f>
+        <v>73.171911580148077</v>
+      </c>
+      <c r="C64" t="str">
+        <f>Data!D64</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f>Data!G65</f>
+        <v>260.75867518386588</v>
+      </c>
+      <c r="B65" s="2">
+        <f>Data!H65</f>
+        <v>33.586353632965789</v>
+      </c>
+      <c r="C65" t="str">
+        <f>Data!D65</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f>Data!G66</f>
+        <v>662.50516447883956</v>
+      </c>
+      <c r="B66" s="2">
+        <f>Data!H66</f>
+        <v>69.267522584886436</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Data!D66</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f>Data!G67</f>
+        <v>771.24800571416461</v>
+      </c>
+      <c r="B67" s="2">
+        <f>Data!H67</f>
+        <v>58.255618538729962</v>
+      </c>
+      <c r="C67" t="str">
+        <f>Data!D67</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f>Data!G68</f>
+        <v>485.59797568393321</v>
+      </c>
+      <c r="B68" s="2">
+        <f>Data!H68</f>
+        <v>66.441203199889799</v>
+      </c>
+      <c r="C68" t="str">
+        <f>Data!D68</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f>Data!G69</f>
+        <v>700.7065795784049</v>
+      </c>
+      <c r="B69" s="2">
+        <f>Data!H69</f>
+        <v>87.93585965307895</v>
+      </c>
+      <c r="C69" t="str">
+        <f>Data!D69</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f>Data!G70</f>
+        <v>572.32720500952678</v>
+      </c>
+      <c r="B70" s="2">
+        <f>Data!H70</f>
+        <v>45.092237679942592</v>
+      </c>
+      <c r="C70" t="str">
+        <f>Data!D70</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f>Data!G71</f>
+        <v>370.97604907897522</v>
+      </c>
+      <c r="B71" s="2">
+        <f>Data!H71</f>
+        <v>34.925276712850213</v>
+      </c>
+      <c r="C71" t="str">
+        <f>Data!D71</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f>Data!G72</f>
+        <v>572.27912110168279</v>
+      </c>
+      <c r="B72" s="2">
+        <f>Data!H72</f>
+        <v>32.209711407489543</v>
+      </c>
+      <c r="C72" t="str">
+        <f>Data!D72</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f>Data!G73</f>
+        <v>807.60731329319378</v>
+      </c>
+      <c r="B73" s="2">
+        <f>Data!H73</f>
+        <v>33.683794300691233</v>
+      </c>
+      <c r="C73" t="str">
+        <f>Data!D73</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <f>Data!G74</f>
+        <v>492.83479217800971</v>
+      </c>
+      <c r="B74" s="2">
+        <f>Data!H74</f>
+        <v>48.457965811717919</v>
+      </c>
+      <c r="C74" t="str">
+        <f>Data!D74</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f>Data!G75</f>
+        <v>812.92873116280123</v>
+      </c>
+      <c r="B75" s="2">
+        <f>Data!H75</f>
+        <v>56.823039496332868</v>
+      </c>
+      <c r="C75" t="str">
+        <f>Data!D75</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f>Data!G76</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <f>Data!H76</f>
+        <v>55.533815986600381</v>
+      </c>
+      <c r="C76" t="str">
+        <f>Data!D76</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f>Data!G77</f>
+        <v>664.38050087504473</v>
+      </c>
+      <c r="B77" s="2">
+        <f>Data!H77</f>
+        <v>66.543664980720479</v>
+      </c>
+      <c r="C77" t="str">
+        <f>Data!D77</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f>Data!G78</f>
+        <v>517.40941364763421</v>
+      </c>
+      <c r="B78" s="2">
+        <f>Data!H78</f>
+        <v>50.260037837558137</v>
+      </c>
+      <c r="C78" t="str">
+        <f>Data!D78</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f>Data!G79</f>
+        <v>440.19852990682648</v>
+      </c>
+      <c r="B79" s="2">
+        <f>Data!H79</f>
+        <v>79.070681543146335</v>
+      </c>
+      <c r="C79" t="str">
+        <f>Data!D79</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f>Data!G80</f>
+        <v>518.35215530710047</v>
+      </c>
+      <c r="B80" s="2">
+        <f>Data!H80</f>
+        <v>44.706863335240882</v>
+      </c>
+      <c r="C80" t="str">
+        <f>Data!D80</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <f>Data!G81</f>
+        <v>102.4862170798214</v>
+      </c>
+      <c r="B81" s="2">
+        <f>Data!H81</f>
+        <v>104.4033833317924</v>
+      </c>
+      <c r="C81" t="str">
+        <f>Data!D81</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <f>Data!G82</f>
+        <v>456.06562243249761</v>
+      </c>
+      <c r="B82" s="2">
+        <f>Data!H82</f>
+        <v>62.513346955300122</v>
+      </c>
+      <c r="C82" t="str">
+        <f>Data!D82</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <f>Data!G83</f>
+        <v>571.42251430234933</v>
+      </c>
+      <c r="B83" s="2">
+        <f>Data!H83</f>
+        <v>32.856848871674337</v>
+      </c>
+      <c r="C83" t="str">
+        <f>Data!D83</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <f>Data!G84</f>
+        <v>795.57880894830328</v>
+      </c>
+      <c r="B84" s="2">
+        <f>Data!H84</f>
+        <v>28.582150038777751</v>
+      </c>
+      <c r="C84" t="str">
+        <f>Data!D84</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <f>Data!G85</f>
+        <v>396.34595634527051</v>
+      </c>
+      <c r="B85" s="2">
+        <f>Data!H85</f>
+        <v>59.649448304863697</v>
+      </c>
+      <c r="C85" t="str">
+        <f>Data!D85</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <f>Data!G86</f>
+        <v>338.30127942136238</v>
+      </c>
+      <c r="B86" s="2">
+        <f>Data!H86</f>
+        <v>45.530744293482982</v>
+      </c>
+      <c r="C86" t="str">
+        <f>Data!D86</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <f>Data!G87</f>
+        <v>399.64859128309268</v>
+      </c>
+      <c r="B87" s="2">
+        <f>Data!H87</f>
+        <v>64.280009881841835</v>
+      </c>
+      <c r="C87" t="str">
+        <f>Data!D87</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <f>Data!G88</f>
+        <v>683.08042354041481</v>
+      </c>
+      <c r="B88" s="2">
+        <f>Data!H88</f>
+        <v>59.464752491470897</v>
+      </c>
+      <c r="C88" t="str">
+        <f>Data!D88</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f>Data!G89</f>
+        <v>565.75022193193695</v>
+      </c>
+      <c r="B89" s="2">
+        <f>Data!H89</f>
+        <v>48.543421746862542</v>
+      </c>
+      <c r="C89" t="str">
+        <f>Data!D89</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <f>Data!G90</f>
+        <v>394.04795924659231</v>
+      </c>
+      <c r="B90" s="2">
+        <f>Data!H90</f>
+        <v>33.0641256386319</v>
+      </c>
+      <c r="C90" t="str">
+        <f>Data!D90</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <f>Data!G91</f>
+        <v>602.65348662267127</v>
+      </c>
+      <c r="B91" s="2">
+        <f>Data!H91</f>
+        <v>19.703055506282709</v>
+      </c>
+      <c r="C91" t="str">
+        <f>Data!D91</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <f>Data!G92</f>
+        <v>519.41550986960806</v>
+      </c>
+      <c r="B92" s="2">
+        <f>Data!H92</f>
+        <v>41.069700958659581</v>
+      </c>
+      <c r="C92" t="str">
+        <f>Data!D92</f>
+        <v>East</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <f>Data!G93</f>
+        <v>693.72899810657782</v>
+      </c>
+      <c r="B93" s="2">
+        <f>Data!H93</f>
+        <v>67.127975886469443</v>
+      </c>
+      <c r="C93" t="str">
+        <f>Data!D93</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <f>Data!G94</f>
+        <v>359.58938122452952</v>
+      </c>
+      <c r="B94" s="2">
+        <f>Data!H94</f>
+        <v>54.281874882604079</v>
+      </c>
+      <c r="C94" t="str">
+        <f>Data!D94</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <f>Data!G95</f>
+        <v>434.46757068044627</v>
+      </c>
+      <c r="B95" s="2">
+        <f>Data!H95</f>
+        <v>25.085224425760241</v>
+      </c>
+      <c r="C95" t="str">
+        <f>Data!D95</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <f>Data!G96</f>
+        <v>421.57836937356848</v>
+      </c>
+      <c r="B96" s="2">
+        <f>Data!H96</f>
+        <v>53.46361851702364</v>
+      </c>
+      <c r="C96" t="str">
+        <f>Data!D96</f>
+        <v>South</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <f>Data!G97</f>
+        <v>207.29701037357631</v>
+      </c>
+      <c r="B97" s="2">
+        <f>Data!H97</f>
+        <v>57.706347594576727</v>
+      </c>
+      <c r="C97" t="str">
+        <f>Data!D97</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <f>Data!G98</f>
+        <v>559.22405541291516</v>
+      </c>
+      <c r="B98" s="2">
+        <f>Data!H98</f>
+        <v>32.322851275977342</v>
+      </c>
+      <c r="C98" t="str">
+        <f>Data!D98</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <f>Data!G99</f>
+        <v>552.21105443597787</v>
+      </c>
+      <c r="B99" s="2">
+        <f>Data!H99</f>
+        <v>53.074502118910559</v>
+      </c>
+      <c r="C99" t="str">
+        <f>Data!D99</f>
+        <v>North</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <f>Data!G100</f>
+        <v>501.02269132849221</v>
+      </c>
+      <c r="B100" s="2">
+        <f>Data!H100</f>
+        <v>51.164174368920001</v>
+      </c>
+      <c r="C100" t="str">
+        <f>Data!D100</f>
+        <v>West</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <f>Data!G101</f>
+        <v>453.08257332497061</v>
+      </c>
+      <c r="B101" s="2">
+        <f>Data!H101</f>
+        <v>27.140594043387541</v>
+      </c>
+      <c r="C101" t="str">
+        <f>Data!D101</f>
+        <v>North</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BD8BD-9319-4082-BA43-9401B2B2D8AB}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>[2]Data!G1</f>
+        <v>Average_Sale_Amount</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>[2]Data!J1</f>
+        <v>Profit_Margin</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <f>[2]Data!G2</f>
+        <v>599.34283060224652</v>
+      </c>
+      <c r="B2" s="8">
+        <f>[2]Data!J2</f>
+        <v>0.1171004989077928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <f>[2]Data!G3</f>
+        <v>472.34713976576307</v>
+      </c>
+      <c r="B3" s="8">
+        <f>[2]Data!J3</f>
+        <v>0.14398189598030309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <f>[2]Data!G4</f>
+        <v>629.53770762013846</v>
+      </c>
+      <c r="B4" s="8">
+        <f>[2]Data!J4</f>
+        <v>0.27472936051232622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <f>[2]Data!G5</f>
+        <v>804.60597128160509</v>
+      </c>
+      <c r="B5" s="8">
+        <f>[2]Data!J5</f>
+        <v>0.26103702654334648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <f>[2]Data!G6</f>
+        <v>453.16932505533282</v>
+      </c>
+      <c r="B6" s="8">
+        <f>[2]Data!J6</f>
+        <v>0.19790984060358521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>[2]Data!G7</f>
+        <v>453.17260861016388</v>
+      </c>
+      <c r="B7" s="8">
+        <f>[2]Data!J7</f>
+        <v>0.21173273833087819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <f>[2]Data!G8</f>
+        <v>815.84256310147828</v>
+      </c>
+      <c r="B8" s="8">
+        <f>[2]Data!J8</f>
+        <v>0.32776648957884252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <f>[2]Data!G9</f>
+        <v>653.48694583058182</v>
+      </c>
+      <c r="B9" s="8">
+        <f>[2]Data!J9</f>
+        <v>0.140842861116417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <f>[2]Data!G10</f>
+        <v>406.10512281300959</v>
+      </c>
+      <c r="B10" s="8">
+        <f>[2]Data!J10</f>
+        <v>0.25470973811700381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <f>[2]Data!G11</f>
+        <v>608.51200871719288</v>
+      </c>
+      <c r="B11" s="8">
+        <f>[2]Data!J11</f>
+        <v>0.17978073475661061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <f>[2]Data!G12</f>
+        <v>407.31646143750748</v>
+      </c>
+      <c r="B12" s="8">
+        <f>[2]Data!J12</f>
+        <v>0.17823187967727799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <f>[2]Data!G13</f>
+        <v>406.85404928594858</v>
+      </c>
+      <c r="B13" s="8">
+        <f>[2]Data!J13</f>
+        <v>0.30987768519871911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <f>[2]Data!G14</f>
+        <v>548.39245431320683</v>
+      </c>
+      <c r="B14" s="8">
+        <f>[2]Data!J14</f>
+        <v>0.28254163489880302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <f>[2]Data!G15</f>
+        <v>117.3439510684404</v>
+      </c>
+      <c r="B15" s="8">
+        <f>[2]Data!J15</f>
+        <v>0.28135096360006379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <f>[2]Data!G16</f>
+        <v>155.01643349739351</v>
+      </c>
+      <c r="B16" s="8">
+        <f>[2]Data!J16</f>
+        <v>0.33054788071543301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <f>[2]Data!G17</f>
+        <v>387.54249415180539</v>
+      </c>
+      <c r="B17" s="8">
+        <f>[2]Data!J17</f>
+        <v>0.20210038416327589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <f>[2]Data!G18</f>
+        <v>297.43377593311533</v>
+      </c>
+      <c r="B18" s="8">
+        <f>[2]Data!J18</f>
+        <v>0.26819529712949641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <f>[2]Data!G19</f>
+        <v>562.84946651905477</v>
+      </c>
+      <c r="B19" s="8">
+        <f>[2]Data!J19</f>
+        <v>0.1689733243406544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <f>[2]Data!G20</f>
+        <v>318.39518489575778</v>
+      </c>
+      <c r="B20" s="8">
+        <f>[2]Data!J20</f>
+        <v>0.23241663524884421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <f>[2]Data!G21</f>
+        <v>217.5392597329417</v>
+      </c>
+      <c r="B21" s="8">
+        <f>[2]Data!J21</f>
+        <v>0.18698569456323161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <f>[2]Data!G22</f>
+        <v>793.12975378431088</v>
+      </c>
+      <c r="B22" s="8">
+        <f>[2]Data!J22</f>
+        <v>0.20969959649927181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <f>[2]Data!G23</f>
+        <v>454.84473990269288</v>
+      </c>
+      <c r="B23" s="8">
+        <f>[2]Data!J23</f>
+        <v>0.25951570254369138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <f>[2]Data!G24</f>
+        <v>513.50564093758476</v>
+      </c>
+      <c r="B24" s="8">
+        <f>[2]Data!J24</f>
+        <v>0.11817793167665271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <f>[2]Data!G25</f>
+        <v>215.05036275730859</v>
+      </c>
+      <c r="B25" s="8">
+        <f>[2]Data!J25</f>
+        <v>0.40923872756854612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <f>[2]Data!G26</f>
+        <v>391.12345509496339</v>
+      </c>
+      <c r="B26" s="8">
+        <f>[2]Data!J26</f>
+        <v>9.9398261850029812E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <f>[2]Data!G27</f>
+        <v>522.18451794197324</v>
+      </c>
+      <c r="B27" s="8">
+        <f>[2]Data!J27</f>
+        <v>7.8581138721226795E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <f>[2]Data!G28</f>
+        <v>269.80128451553952</v>
+      </c>
+      <c r="B28" s="8">
+        <f>[2]Data!J28</f>
+        <v>0.31581108735000679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <f>[2]Data!G29</f>
+        <v>575.13960366913443</v>
+      </c>
+      <c r="B29" s="8">
+        <f>[2]Data!J29</f>
+        <v>0.27916626939629358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <f>[2]Data!G30</f>
+        <v>379.87226201623901</v>
+      </c>
+      <c r="B30" s="8">
+        <f>[2]Data!J30</f>
+        <v>0.26241198170521551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <f>[2]Data!G31</f>
+        <v>441.66125004134472</v>
+      </c>
+      <c r="B31" s="8">
+        <f>[2]Data!J31</f>
+        <v>0.26283455092642799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <f>[2]Data!G32</f>
+        <v>379.65867755412057</v>
+      </c>
+      <c r="B32" s="8">
+        <f>[2]Data!J32</f>
+        <v>0.19877532271530851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <f>[2]Data!G33</f>
+        <v>870.45563690178756</v>
+      </c>
+      <c r="B33" s="8">
+        <f>[2]Data!J33</f>
+        <v>0.1102745628514168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <f>[2]Data!G34</f>
+        <v>497.30055505241319</v>
+      </c>
+      <c r="B34" s="8">
+        <f>[2]Data!J34</f>
+        <v>0.20758045581937271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <f>[2]Data!G35</f>
+        <v>288.45781420882003</v>
+      </c>
+      <c r="B35" s="8">
+        <f>[2]Data!J35</f>
+        <v>0.13228382884878881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <f>[2]Data!G36</f>
+        <v>664.50898242063784</v>
+      </c>
+      <c r="B36" s="8">
+        <f>[2]Data!J36</f>
+        <v>0.29751197334177509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <f>[2]Data!G37</f>
+        <v>255.83127000579549</v>
+      </c>
+      <c r="B37" s="8">
+        <f>[2]Data!J37</f>
+        <v>0.18529426184978609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <f>[2]Data!G38</f>
+        <v>541.77271900095104</v>
+      </c>
+      <c r="B38" s="8">
+        <f>[2]Data!J38</f>
+        <v>0.11745028032074881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <f>[2]Data!G39</f>
+        <v>108.06597522404491</v>
+      </c>
+      <c r="B39" s="8">
+        <f>[2]Data!J39</f>
+        <v>0.16786141583470071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <f>[2]Data!G40</f>
+        <v>234.36279022031391</v>
+      </c>
+      <c r="B40" s="8">
+        <f>[2]Data!J40</f>
+        <v>0.24129314542756239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <f>[2]Data!G41</f>
+        <v>539.37224717382469</v>
+      </c>
+      <c r="B41" s="8">
+        <f>[2]Data!J41</f>
+        <v>0.14362754471960251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <f>[2]Data!G42</f>
+        <v>647.69331599908207</v>
+      </c>
+      <c r="B42" s="8">
+        <f>[2]Data!J42</f>
+        <v>0.11777796044335689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <f>[2]Data!G43</f>
+        <v>534.27365623799415</v>
+      </c>
+      <c r="B43" s="8">
+        <f>[2]Data!J43</f>
+        <v>0.22436872114919121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <f>[2]Data!G44</f>
+        <v>476.8703435223519</v>
+      </c>
+      <c r="B44" s="8">
+        <f>[2]Data!J44</f>
+        <v>0.2244966571108723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <f>[2]Data!G45</f>
+        <v>439.77926088214218</v>
+      </c>
+      <c r="B45" s="8">
+        <f>[2]Data!J45</f>
+        <v>0.149305682462887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <f>[2]Data!G46</f>
+        <v>204.29560192651451</v>
+      </c>
+      <c r="B46" s="8">
+        <f>[2]Data!J46</f>
+        <v>0.1528961694381677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <f>[2]Data!G47</f>
+        <v>356.03115832105829</v>
+      </c>
+      <c r="B47" s="8">
+        <f>[2]Data!J47</f>
+        <v>0.22320499373576361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <f>[2]Data!G48</f>
+        <v>407.87224580804252</v>
+      </c>
+      <c r="B48" s="8">
+        <f>[2]Data!J48</f>
+        <v>5.5191565850267597E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <f>[2]Data!G49</f>
+        <v>711.42444524378311</v>
+      </c>
+      <c r="B49" s="8">
+        <f>[2]Data!J49</f>
+        <v>5.9253622562344482E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <f>[2]Data!G50</f>
+        <v>568.72365791369225</v>
+      </c>
+      <c r="B50" s="8">
+        <f>[2]Data!J50</f>
+        <v>0.1281555778747564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <f>[2]Data!G51</f>
+        <v>147.39196892745321</v>
+      </c>
+      <c r="B51" s="8">
+        <f>[2]Data!J51</f>
+        <v>0.17865528482881529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <f>[2]Data!G52</f>
+        <v>564.81679387895906</v>
+      </c>
+      <c r="B52" s="8">
+        <f>[2]Data!J52</f>
+        <v>0.23109075655980049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <f>[2]Data!G53</f>
+        <v>422.98354391673672</v>
+      </c>
+      <c r="B53" s="8">
+        <f>[2]Data!J53</f>
+        <v>0.34753562169495522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <f>[2]Data!G54</f>
+        <v>364.61559993880832</v>
+      </c>
+      <c r="B54" s="8">
+        <f>[2]Data!J54</f>
+        <v>0.28576596232020202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <f>[2]Data!G55</f>
+        <v>622.33525776817362</v>
+      </c>
+      <c r="B55" s="8">
+        <f>[2]Data!J55</f>
+        <v>0.18400614700365731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <f>[2]Data!G56</f>
+        <v>706.19990449919021</v>
+      </c>
+      <c r="B56" s="8">
+        <f>[2]Data!J56</f>
+        <v>0.19809837920973111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <f>[2]Data!G57</f>
+        <v>686.25602382323973</v>
+      </c>
+      <c r="B57" s="8">
+        <f>[2]Data!J57</f>
+        <v>9.9747063536219122E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <f>[2]Data!G58</f>
+        <v>332.15649535547232</v>
+      </c>
+      <c r="B58" s="8">
+        <f>[2]Data!J58</f>
+        <v>0.198148686400761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <f>[2]Data!G59</f>
+        <v>438.15752482975711</v>
+      </c>
+      <c r="B59" s="8">
+        <f>[2]Data!J59</f>
+        <v>0.1711341361079862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <f>[2]Data!G60</f>
+        <v>566.25268628071285</v>
+      </c>
+      <c r="B60" s="8">
+        <f>[2]Data!J60</f>
+        <v>0.23227185603380901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <f>[2]Data!G61</f>
+        <v>695.10902542447184</v>
+      </c>
+      <c r="B61" s="8">
+        <f>[2]Data!J61</f>
+        <v>0.1172769056447677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <f>[2]Data!G62</f>
+        <v>404.16515243094199</v>
+      </c>
+      <c r="B62" s="8">
+        <f>[2]Data!J62</f>
+        <v>0.25193465142411731</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <f>[2]Data!G63</f>
+        <v>462.86820466723663</v>
+      </c>
+      <c r="B63" s="8">
+        <f>[2]Data!J63</f>
+        <v>0.35327389130025783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <f>[2]Data!G64</f>
+        <v>278.73300519879427</v>
+      </c>
+      <c r="B64" s="8">
+        <f>[2]Data!J64</f>
+        <v>0.18912398515431431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <f>[2]Data!G65</f>
+        <v>260.75867518386588</v>
+      </c>
+      <c r="B65" s="8">
+        <f>[2]Data!J65</f>
+        <v>0.24017117220989409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <f>[2]Data!G66</f>
+        <v>662.50516447883956</v>
+      </c>
+      <c r="B66" s="8">
+        <f>[2]Data!J66</f>
+        <v>0.26901439917111131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <f>[2]Data!G67</f>
+        <v>771.24800571416461</v>
+      </c>
+      <c r="B67" s="8">
+        <f>[2]Data!J67</f>
+        <v>0.1598779528114164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <f>[2]Data!G68</f>
+        <v>485.59797568393321</v>
+      </c>
+      <c r="B68" s="8">
+        <f>[2]Data!J68</f>
+        <v>0.22240924818104171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <f>[2]Data!G69</f>
+        <v>700.7065795784049</v>
+      </c>
+      <c r="B69" s="8">
+        <f>[2]Data!J69</f>
+        <v>0.2012592400781795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <f>[2]Data!G70</f>
+        <v>572.32720500952678</v>
+      </c>
+      <c r="B70" s="8">
+        <f>[2]Data!J70</f>
+        <v>0.20976760985488321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <f>[2]Data!G71</f>
+        <v>370.97604907897522</v>
+      </c>
+      <c r="B71" s="8">
+        <f>[2]Data!J71</f>
+        <v>0.1226990216144534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <f>[2]Data!G72</f>
+        <v>572.27912110168279</v>
+      </c>
+      <c r="B72" s="8">
+        <f>[2]Data!J72</f>
+        <v>0.2024510174258943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <f>[2]Data!G73</f>
+        <v>807.60731329319378</v>
+      </c>
+      <c r="B73" s="8">
+        <f>[2]Data!J73</f>
+        <v>0.24979982912454499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <f>[2]Data!G74</f>
+        <v>492.83479217800971</v>
+      </c>
+      <c r="B74" s="8">
+        <f>[2]Data!J74</f>
+        <v>0.34511436077950419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <f>[2]Data!G75</f>
+        <v>812.92873116280123</v>
+      </c>
+      <c r="B75" s="8">
+        <f>[2]Data!J75</f>
+        <v>0.29592708260852069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <f>[2]Data!G76</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="8">
+        <f>[2]Data!J76</f>
+        <v>0.41531824575115572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <f>[2]Data!G77</f>
+        <v>664.38050087504473</v>
+      </c>
+      <c r="B77" s="8">
+        <f>[2]Data!J77</f>
+        <v>0.1232652437111951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <f>[2]Data!G78</f>
+        <v>517.40941364763421</v>
+      </c>
+      <c r="B78" s="8">
+        <f>[2]Data!J78</f>
+        <v>0.28723206367206783</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <f>[2]Data!G79</f>
+        <v>440.19852990682648</v>
+      </c>
+      <c r="B79" s="8">
+        <f>[2]Data!J79</f>
+        <v>0.21833420057383521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <f>[2]Data!G80</f>
+        <v>518.35215530710047</v>
+      </c>
+      <c r="B80" s="8">
+        <f>[2]Data!J80</f>
+        <v>0.41898029332176723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <f>[2]Data!G81</f>
+        <v>102.4862170798214</v>
+      </c>
+      <c r="B81" s="8">
+        <f>[2]Data!J81</f>
+        <v>0.1191701714644849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <f>[2]Data!G82</f>
+        <v>456.06562243249761</v>
+      </c>
+      <c r="B82" s="8">
+        <f>[2]Data!J82</f>
+        <v>0.11602781578192239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <f>[2]Data!G83</f>
+        <v>571.42251430234933</v>
+      </c>
+      <c r="B83" s="8">
+        <f>[2]Data!J83</f>
+        <v>0.1400607354555978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <f>[2]Data!G84</f>
+        <v>795.57880894830328</v>
+      </c>
+      <c r="B84" s="8">
+        <f>[2]Data!J84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <f>[2]Data!G85</f>
+        <v>396.34595634527051</v>
+      </c>
+      <c r="B85" s="8">
+        <f>[2]Data!J85</f>
+        <v>0.14742449783192391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <f>[2]Data!G86</f>
+        <v>338.30127942136238</v>
+      </c>
+      <c r="B86" s="8">
+        <f>[2]Data!J86</f>
+        <v>0.1240867338446302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <f>[2]Data!G87</f>
+        <v>399.64859128309268</v>
+      </c>
+      <c r="B87" s="8">
+        <f>[2]Data!J87</f>
+        <v>0.21503937864762079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <f>[2]Data!G88</f>
+        <v>683.08042354041481</v>
+      </c>
+      <c r="B88" s="8">
+        <f>[2]Data!J88</f>
+        <v>0.23417559757771589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <f>[2]Data!G89</f>
+        <v>565.75022193193695</v>
+      </c>
+      <c r="B89" s="8">
+        <f>[2]Data!J89</f>
+        <v>0.38761708392158872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <f>[2]Data!G90</f>
+        <v>394.04795924659231</v>
+      </c>
+      <c r="B90" s="8">
+        <f>[2]Data!J90</f>
+        <v>0.29504238381860498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <f>[2]Data!G91</f>
+        <v>602.65348662267127</v>
+      </c>
+      <c r="B91" s="8">
+        <f>[2]Data!J91</f>
+        <v>0.14230963443375971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <f>[2]Data!G92</f>
+        <v>519.41550986960806</v>
+      </c>
+      <c r="B92" s="8">
+        <f>[2]Data!J92</f>
+        <v>0.11015853286516419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <f>[2]Data!G93</f>
+        <v>693.72899810657782</v>
+      </c>
+      <c r="B93" s="8">
+        <f>[2]Data!J93</f>
+        <v>0.24919191715065059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <f>[2]Data!G94</f>
+        <v>359.58938122452952</v>
+      </c>
+      <c r="B94" s="8">
+        <f>[2]Data!J94</f>
+        <v>6.7976679297935799E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <f>[2]Data!G95</f>
+        <v>434.46757068044627</v>
+      </c>
+      <c r="B95" s="8">
+        <f>[2]Data!J95</f>
+        <v>0.38314587658543542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <f>[2]Data!G96</f>
+        <v>421.57836937356848</v>
+      </c>
+      <c r="B96" s="8">
+        <f>[2]Data!J96</f>
+        <v>0.31794401207212869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <f>[2]Data!G97</f>
+        <v>207.29701037357631</v>
+      </c>
+      <c r="B97" s="8">
+        <f>[2]Data!J97</f>
+        <v>0.15308243478952949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <f>[2]Data!G98</f>
+        <v>559.22405541291516</v>
+      </c>
+      <c r="B98" s="8">
+        <f>[2]Data!J98</f>
+        <v>2.868654709091226E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <f>[2]Data!G99</f>
+        <v>552.21105443597787</v>
+      </c>
+      <c r="B99" s="8">
+        <f>[2]Data!J99</f>
+        <v>0.33538723741654131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <f>[2]Data!G100</f>
+        <v>501.02269132849221</v>
+      </c>
+      <c r="B100" s="8">
+        <f>[2]Data!J100</f>
+        <v>0.1885460154747382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <f>[2]Data!G101</f>
+        <v>453.08257332497061</v>
+      </c>
+      <c r="B101" s="8">
+        <f>[2]Data!J101</f>
+        <v>0.32378163119734621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14755,8 +23292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC9C250-FC86-8D48-816E-EAFA04B27196}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14765,7 +23302,7 @@
     <col min="2" max="2" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -20917,8 +29454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A35FC4B-1F77-4D2A-ACD5-566E48268466}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P12:P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
